--- a/output/fit_clients/fit_round_98.xlsx
+++ b/output/fit_clients/fit_round_98.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9954029989.187931</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003448473102977185</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.700057578242232</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.958047972483819</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.700057578242232</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4968803681.691737</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005586032922341923</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>22</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.249670424942645</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9125132380968224</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.249670424942645</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5682370567.51115</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002829199284075448</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.334608180676315</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-0.4517539514526256</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.334608180676315</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4947144404.124032</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003845719159520684</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.350101981544169</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8485883207992977</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.350101981544169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5947217815.220109</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.00232083886816071</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>28</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.123284901773954</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.874750314297072</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.123284901773954</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>9164347382.593073</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008446707756027813</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.3279353907529117</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.403422921914392</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.6119887014626505</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.403422921914392</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7247816316.591467</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002601115310180121</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.7776444230364929</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.924507146706769</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.101032597598655</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-2.924507146706769</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6174992400.747861</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005478558962475893</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>15</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.584919375761576</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.194943710132018</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.584919375761576</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4230646555.75745</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005589925053677059</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>22</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650116</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.24623330096433</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9418075219543063</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.24623330096433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4165110880.175</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001362693539426457</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.269689303403551</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.8053461724595791</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.269689303403551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>9195997252.847382</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001365199908944398</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.655443600518947</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.993013095451181</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.655443600518947</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4642936868.40134</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003807333012465974</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.15166192554077</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.243684837940089</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.037846281434241</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.243684837940089</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>5614685366.214576</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002935654533831553</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.554044166543525</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9014797089834621</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.554044166543525</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7201703061.708696</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004669875480204697</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.2680331311859148</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.97747373189528</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.591293877705641</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-2.97747373189528</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7597681544.425179</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005432530490126789</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>16</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.70542392816016</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9253637415841651</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.70542392816016</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5827342638.119552</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002977679080752181</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.555651148152379</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.94767264277281</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.555651148152379</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5345875467.174265</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009164903568895899</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>17</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.515363757571327</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9299985995879794</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.515363757571327</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3119073443.874571</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001929197324940625</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>21</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.330669190520935</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9135247203060953</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.330669190520935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5776112472.831087</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001147782862704107</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.573610879873649</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8276339658273364</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.573610879873649</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6746645169.451719</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005456928977224667</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.8774425482358313</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.600268716771929</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.08830391915674</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.600268716771929</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5769342155.365584</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005453902195495823</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>21</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.428357662697913</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8156571650784639</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.428357662697913</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7097906405.673571</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001968122666706814</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>24</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.121568921424811</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8813368654257513</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.121568921424811</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6647247824.541723</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003587401995625809</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>18</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818316</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.603086161066859</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9941863714572284</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.603086161066859</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7355713964.21575</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.00390179480003864</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>15</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.8295494779767182</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.777210994419091</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.121029457733051</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-2.777210994419091</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4257415943.070995</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001329184042630915</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>22</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.10697124264874</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8335398273336866</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.10697124264874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5943488827.727649</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002783042538683485</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971373</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.458491504079058</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9447446338216781</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.458491504079058</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7740830760.547396</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004289164763564743</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2101110636836699</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.743676628286015</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.930860964844535</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.743676628286015</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7286747331.867344</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001148883360939862</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>19</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.432576815275115</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.288533662962607</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.539665741344528</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.7820180077189313</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.539665741344528</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8958225169.076517</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003228293140930973</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>24</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090876</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.056412546159379</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8741962338468875</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.056412546159379</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6438312659.43607</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002175662525215211</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>22</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.348623510631731</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9669822126462673</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.348623510631731</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4584879301.228165</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0009958430747651563</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>22</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.562416292358392</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.923890199922386</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.562416292358392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5415155104.815701</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002570640216442319</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>15</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278147</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.81095453363016</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8584680813199137</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-2.81095453363016</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7675674144.722066</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.00555975112017779</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>18</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.643225165581795</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7649690119509427</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.643225165581795</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>7183517437.19054</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001927347299514049</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>17</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.557098886691935</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9433814845588272</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.557098886691935</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5232202056.97201</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003666050675130227</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>18</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380638</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.492731261123092</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.023184283626947</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.492731261123092</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4793277901.615405</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005194343366982288</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>23</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.40269604539485</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.009389732011214</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.40269604539485</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3093763051.826448</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.00378258924303517</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.481356935807341</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9266226781664689</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.481356935807341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4845506308.887766</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.00242002620068974</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>18</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.806614812768191</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542553</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.690622593039283</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.014268388951732</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.690622593039283</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6611439581.914384</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003447266275837784</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>21</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.3591205089972215</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.514870790250375</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.6856951446840468</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.514870790250375</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5455623023.091002</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001535003646930716</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>14</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.826784043463633</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9452091678313824</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-2.826784043463633</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5800721608.021763</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004603789157231513</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>19</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.3398609386056008</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.332222983614321</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.6702806581083122</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.332222983614321</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6207207678.789124</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004447501440269378</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>19</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.554086203736951</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9257563648480651</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.554086203736951</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7188066853.151062</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001421279963411689</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>24</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.1839285605359254</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.306423052168522</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.2970270744901397</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.306423052168522</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4215712843.976496</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001102828553253912</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>17</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.845988565948102</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9706700546195459</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.845988565948102</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10166641072.2162</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005494432198488597</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>22</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.300453422026474</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8183626418518004</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.300453422026474</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8576410158.28283</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002348475630965269</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.294596406873517</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.898401163725739</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.294596406873517</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6271569192.469178</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002282663393782317</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>15</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.8897130983458925</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.764897558364618</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.170896803154486</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-2.764897558364618</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4183269658.113431</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003861206163358614</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>22</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.407448555025637</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8810619398277949</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.407448555025637</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5659997185.988709</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002733607486368111</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>14</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.878683026103197</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.012444729039451</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-2.878683026103197</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5358196881.948937</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004200414986272044</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>21</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656325</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.392331354722961</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9636101534118356</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.392331354722961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5315981992.902565</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.00219160759389668</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>20</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.7256669294095054</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.310067192441668</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.9416264282227745</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.310067192441668</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7265639122.788763</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002568359656518121</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.392489711019916</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9213631393783444</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.392489711019916</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4589437270.558942</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004586466100983138</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>22</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.19535059901993</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8533562858786223</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.19535059901993</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6263477305.180671</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002988300662546139</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.368526190626048</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9179554602822051</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.368526190626048</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>3858867376.642568</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002167094722675754</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>19</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.470148426537969</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9144026220686517</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.470148426537969</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6948523116.771922</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.00400801307617843</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
         <v>22</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.8130249749638561</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.232821477550925</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.9736614197663227</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.232821477550925</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>7323253443.382949</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002082518191438661</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>19</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.03519841500184499</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.286330493383766</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8517046956835633</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.286330493383766</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7969418399.941175</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004150182207107088</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>20</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.339766211853511</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8937379785258601</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.339766211853511</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5604585585.061458</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003039930727890195</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>23</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.107420567206295</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.821059203841891</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.107420567206295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>4706631223.336095</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004830408585430682</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>27</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.743577270341319</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9335408809069899</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.743577270341319</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5279922415.893199</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003629307595490956</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>19</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.015713999792609</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8818348020894428</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.015713999792609</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6738171316.976544</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004366391694041553</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>28</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1.999899055541803</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8866119806169462</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-1.999899055541803</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4273475789.889766</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004280057124648361</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>18</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.455583661278114</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8946352971435828</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.455583661278114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6266696583.855065</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005689707857505106</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>25</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.596388788959412</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9866043977458998</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.596388788959412</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5521387491.264558</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003847210604781241</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>19</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.470737079152155</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9121149142974748</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.470737079152155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6422194224.125769</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004465936382771402</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>16</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.724500359251866</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8885051718726659</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.724500359251866</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8053931951.396045</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002948784123962876</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>23</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.096102682176288</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7279963205400152</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.096102682176288</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6355380419.2344</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008621167236192238</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>14</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2.878671202190704</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9884286206880125</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-2.878671202190704</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7349935703.972775</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003429141649697601</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>17</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.7956692284467225</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.379870449416275</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.036180871404149</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.379870449416275</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4889722396.086625</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003653208921956442</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.669978054925616</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8160467477349495</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.669978054925616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7859285461.345778</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002239411556675467</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>18</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.493033850647246</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.064220895625043</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.493033850647246</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6956669716.483119</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001360200840263909</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.698252408290841</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9693433639369861</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.698252408290841</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4701570446.997543</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003502667841958536</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
         <v>22</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.7086712012206764</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.211484051169478</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9414291165876968</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.211484051169478</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5469323487.948911</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004421052866710668</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
         <v>19</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.791708859731534</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.517548539058279</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.025873048844872</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.517548539058279</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6610817781.454022</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002697231191248488</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>21</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418908</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.413787381899219</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9338812878891783</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.413787381899219</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7758426135.237592</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005999442200152402</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>14</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2.845407079624863</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9936988900570162</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-2.845407079624863</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6462679444.509928</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004515524260985097</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>21</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.361222700404217</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9203602716853529</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.361222700404217</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6638986283.149232</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002136912648434952</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>17</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.486332721902438</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9521989176936504</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.486332721902438</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6821238420.428008</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002771423135290416</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.621784209890344</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9797364775664926</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.621784209890344</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>4691767845.864761</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004719660269830653</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>11</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.068049403339359</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9922809189445397</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.068049403339359</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5318814072.644943</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.00553204530434954</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>22</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.354439934458229</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.896342926098599</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.354439934458229</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10935785794.52408</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003542720070915998</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>26</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.7156446871895857</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.037803494317062</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9201695384931549</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.037803494317062</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5733374959.85168</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003909891176250861</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>24</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.15952119098123</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.949795146977788</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.15952119098123</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3880275622.017522</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003475566178420214</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>24</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.126866508936848</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9116335168620404</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.126866508936848</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8577627871.89107</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001861639734921171</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>23</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.44693513123075</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.492973902720271</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9821133500680592</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.492973902720271</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4320379837.614927</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001305848507166641</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>30</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>1.959889869387464</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9571311414561126</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-1.959889869387464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6760651178.383539</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005275543617913071</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>18</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.7002496846791357</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.429519394131406</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.9270284745544188</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.429519394131406</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5653108095.572374</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.00411717990082138</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>15</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758226</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.822398582378168</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9704204379493149</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.822398582378168</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4748201011.151686</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002442082113931976</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>16</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.565867800832704</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9629814153943738</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.565867800832704</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5296414122.911777</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003789412385857545</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>14</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.673071313458965</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8248120479743108</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.673071313458965</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3883196312.342414</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003695199941977455</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>15</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.790477855915417</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.061913736376348</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.790477855915417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6486355321.69658</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001404668221455894</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>20</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.394718916258146</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9326321495722719</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.394718916258146</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7485758063.481256</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001216110749350625</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>17</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.615927111618596</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.009704567997303</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.615927111618596</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7551776360.403268</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002122715972501754</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>16</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.570427707453961</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9298683406606103</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.570427707453961</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6896572840.934413</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002129744814641473</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>25</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.196638906615205</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9265411122518092</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.196638906615205</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7517523598.370303</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.00410647844249879</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>19</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.575565146006417</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8947706852416839</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.575565146006417</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8083506979.777322</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.00346975493265569</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.379870449416275</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8768072837895927</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.379870449416275</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3729748459.263985</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005946168993648413</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>23</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.277976443679402</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.901127062163797</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.277976443679402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5876367845.731452</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002279552675800704</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>16</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.568229322159367</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8426441785023489</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.568229322159367</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6896386737.865516</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001584448721153796</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>22</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6171527635678417</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480225</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.560018911347341</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8893227907124565</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.560018911347341</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_98.xlsx
+++ b/output/fit_clients/fit_round_98.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9954029989.187931</v>
+        <v>1755331537.407903</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003448473102977185</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>24</v>
+        <v>0.113475146552811</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03554793445232425</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>877665731.380666</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4968803681.691737</v>
+        <v>1619923943.876769</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005586032922341923</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>24</v>
+        <v>0.1183409523862199</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0486783116825096</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>809961953.0718966</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5682370567.51115</v>
+        <v>4357829067.741557</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002829199284075448</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22</v>
+        <v>0.1389236404160763</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02906126133544185</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2178914573.330524</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4947144404.124032</v>
+        <v>3995229172.256662</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003845719159520684</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1031496539870477</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04554692980271825</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1997614590.103579</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5947217815.220109</v>
+        <v>2310460119.381842</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00232083886816071</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>21</v>
+        <v>0.1325922141528808</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03827910747350759</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1155230055.616528</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>9164347382.593073</v>
+        <v>2061233012.794499</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008446707756027813</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>29</v>
+        <v>0.06370701302190236</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04972344742850036</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1030616561.590372</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7247816316.591467</v>
+        <v>3719835993.140205</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002601115310180121</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
+        <v>0.2008221059344414</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02142114764499115</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1859918127.604547</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6174992400.747861</v>
+        <v>1531131397.737491</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005478558962475893</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>30</v>
+        <v>0.1448139208121796</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03285884425672096</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>765565790.4787397</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4230646555.75745</v>
+        <v>3952913440.543945</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005589925053677059</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1621959182576866</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04637094758528072</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>42</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1976456738.455863</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4165110880.175</v>
+        <v>3755147916.120371</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001362693539426457</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1877109769392634</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04726738055228599</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>41</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1877573953.603046</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>9195997252.847382</v>
+        <v>2851975345.391326</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001365199908944398</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>28</v>
+        <v>0.1600535902105867</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03941585606943251</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>35</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1425987677.064286</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4642936868.40134</v>
+        <v>5314465156.843307</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003807333012465974</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>20</v>
+        <v>0.08801836242152106</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02105920032699462</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>33</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2657232566.501129</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>5614685366.214576</v>
+        <v>3708561977.030057</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002935654533831553</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>23</v>
+        <v>0.1609831054341385</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03148348175051523</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>32</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1854280971.558</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7201703061.708696</v>
+        <v>1574713612.119774</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004669875480204697</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>28</v>
+        <v>0.0787424944600911</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03733500808092486</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>787356908.4242035</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7597681544.425179</v>
+        <v>2502174745.841797</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005432530490126789</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>31</v>
+        <v>0.09825623139643248</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05149870296954116</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1251087403.472118</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5827342638.119552</v>
+        <v>4473324507.810733</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002977679080752181</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>20</v>
+        <v>0.1273046418497209</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04419677499743319</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>29</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2236662264.988219</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5345875467.174265</v>
+        <v>3411305920.918746</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009164903568895899</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>27</v>
+        <v>0.1562225796809824</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02076773745396336</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>32</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1705652960.851105</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3119073443.874571</v>
+        <v>1076317054.443905</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001929197324940625</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1773787265276129</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02335219917414445</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>538158574.9518863</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5776112472.831087</v>
+        <v>2317863490.804716</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001147782862704107</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.1189543295230865</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02480265655714498</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1158931737.832834</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6746645169.451719</v>
+        <v>2016981129.896497</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005456928977224667</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>18</v>
+        <v>0.08737017921422233</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03806186246844155</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1008490599.20304</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5769342155.365584</v>
+        <v>3944024314.658654</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005453902195495823</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
+        <v>0.09234214128367738</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04736558256570298</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1972012162.257056</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7097906405.673571</v>
+        <v>936020359.7313814</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001968122666706814</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>18</v>
+        <v>0.1804475955554813</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04627988649702852</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>468010260.7516371</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6647247824.541723</v>
+        <v>3573537057.274704</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003587401995625809</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>26</v>
+        <v>0.09160678282662146</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03592440333373591</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1786768525.24868</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7355713964.21575</v>
+        <v>1452375225.39344</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00390179480003864</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>22</v>
+        <v>0.09034221584538717</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02339167734132798</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>726187572.5323148</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4257415943.070995</v>
+        <v>1438318081.402618</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001329184042630915</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09901713769909239</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02555071071883508</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>719159120.0140808</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5943488827.727649</v>
+        <v>4179506190.100254</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002783042538683485</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>27</v>
+        <v>0.1437825097408995</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01819489622271878</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2089753096.204227</v>
       </c>
     </row>
     <row r="28">
@@ -1211,19 +1377,25 @@
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7740830760.547396</v>
+        <v>2679744398.853167</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004289164763564743</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>25</v>
+        <v>0.1126504945957581</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03192254417272096</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>32</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1339872182.809394</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7286747331.867344</v>
+        <v>4616358910.435037</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001148883360939862</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>26</v>
+        <v>0.1176833548413223</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03218084623507582</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>45</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2308179429.269292</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8958225169.076517</v>
+        <v>2241203092.946076</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003228293140930973</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>31</v>
+        <v>0.1078439385885282</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02986060576191981</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1120601611.309051</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6438312659.43607</v>
+        <v>1359661408.319627</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002175662525215211</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>20</v>
+        <v>0.07861983975409245</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03431115188954241</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>679830617.9778516</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4584879301.228165</v>
+        <v>1643290986.120592</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0009958430747651563</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09858484399131666</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02985305274895203</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>821645590.9953345</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5415155104.815701</v>
+        <v>2590272154.383159</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002570640216442319</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>22</v>
+        <v>0.2068661294659137</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.06023829517267909</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>28</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1295136107.639119</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7675674144.722066</v>
+        <v>1324512101.978384</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00555975112017779</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>30</v>
+        <v>0.1032462712407435</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01728170837460492</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>662256035.5408733</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>7183517437.19054</v>
+        <v>823705642.9104047</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001927347299514049</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>25</v>
+        <v>0.09608756428304593</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03784112649095243</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>411852878.6272205</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5232202056.97201</v>
+        <v>2895343887.139073</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003666050675130227</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>28</v>
+        <v>0.1457194707936877</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02238493165790267</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>24</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1447671933.794409</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4793277901.615405</v>
+        <v>2135548872.091097</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005194343366982288</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>25</v>
+        <v>0.1015806822949289</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03677370316580075</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>24</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1067774481.92509</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3093763051.826448</v>
+        <v>2164178605.32341</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00378258924303517</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08448224894055233</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02823111742456197</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1082089258.035532</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4845506308.887766</v>
+        <v>2182906523.38204</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00242002620068974</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1744147172717676</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02451717889099447</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1091453228.377901</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6611439581.914384</v>
+        <v>1547828152.217673</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003447266275837784</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1273430729019309</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0540880305546157</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>773914030.2315964</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5455623023.091002</v>
+        <v>2030504978.975948</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001535003646930716</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>28</v>
+        <v>0.1474546859815746</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03939545251844606</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1015252560.638124</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5800721608.021763</v>
+        <v>4045120873.202606</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004603789157231513</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>24</v>
+        <v>0.08973341168105867</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03640748937298562</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>32</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2022560468.934988</v>
       </c>
     </row>
     <row r="43">
@@ -1631,19 +1887,25 @@
         <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6207207678.789124</v>
+        <v>2441509930.027824</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004447501440269378</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>23</v>
+        <v>0.1645914679675979</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02316630593884341</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>32</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1220755019.494789</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7188066853.151062</v>
+        <v>1835167757.886888</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001421279963411689</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>25</v>
+        <v>0.1011297965778006</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03438763669206718</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>917583952.3212904</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4215712843.976496</v>
+        <v>2007024065.96336</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001102828553253912</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.158561532372645</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05517593017083015</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1003512024.469411</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>525</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5473599808.343083</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1340364274862889</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04015461364209549</v>
+      </c>
+      <c r="H46" t="b">
         <v>1</v>
       </c>
-      <c r="D46" t="n">
-        <v>406</v>
-      </c>
-      <c r="E46" t="n">
-        <v>10166641072.2162</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.005494432198488597</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>16</v>
+      <c r="I46" t="n">
+        <v>35</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2736799958.033097</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8576410158.28283</v>
+        <v>3463284522.943701</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002348475630965269</v>
-      </c>
-      <c r="G47" t="b">
+        <v>0.1227499891057188</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03843494728607784</v>
+      </c>
+      <c r="H47" t="b">
         <v>1</v>
       </c>
-      <c r="H47" t="n">
-        <v>15</v>
+      <c r="I47" t="n">
+        <v>26</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1731642230.10732</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6271569192.469178</v>
+        <v>4238308770.533219</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002282663393782317</v>
-      </c>
-      <c r="G48" t="b">
+        <v>0.06832602038131948</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03162757146100106</v>
+      </c>
+      <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="H48" t="n">
-        <v>17</v>
+      <c r="I48" t="n">
+        <v>33</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2119154405.72206</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4183269658.113431</v>
+        <v>1643892452.158778</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003861206163358614</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1658997647936882</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04275374967081408</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>821946235.6470222</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5659997185.988709</v>
+        <v>4038833040.758477</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002733607486368111</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>27</v>
+        <v>0.1696824015100487</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0354252461290367</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>34</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2019416506.226033</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5358196881.948937</v>
+        <v>1456322160.287481</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004200414986272044</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1353395648398222</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03483418526762024</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>728161090.0964397</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5315981992.902565</v>
+        <v>4528871210.206239</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00219160759389668</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>24</v>
+        <v>0.1347813891206036</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04393068609044881</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>41</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2264435630.386237</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7265639122.788763</v>
+        <v>3774418825.780457</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002568359656518121</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>18</v>
+        <v>0.1673166483460098</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02333710213535642</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1887209391.793836</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4589437270.558942</v>
+        <v>3234604551.735653</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004586466100983138</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>24</v>
+        <v>0.1142933954372535</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.05261733178107243</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>34</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1617302279.794279</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6263477305.180671</v>
+        <v>4399506553.373533</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002988300662546139</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>31</v>
+        <v>0.2222772953011958</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02594661854618535</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2199753269.141877</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>3858867376.642568</v>
+        <v>1337064660.485529</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002167094722675754</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>13</v>
+        <v>0.1183164422327779</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04688600120262199</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>668532396.5697614</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6948523116.771922</v>
+        <v>3220825073.726659</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00400801307617843</v>
-      </c>
-      <c r="G57" t="b">
+        <v>0.1689626440936635</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01911260063570748</v>
+      </c>
+      <c r="H57" t="b">
         <v>1</v>
       </c>
-      <c r="H57" t="n">
-        <v>22</v>
+      <c r="I57" t="n">
+        <v>31</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1610412559.748715</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>7323253443.382949</v>
+        <v>1475240146.903404</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002082518191438661</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>24</v>
+        <v>0.15973099162539</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02791066445241688</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>737620106.7695013</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>458</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4057984153.149109</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.08393067635193922</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04919447999850725</v>
+      </c>
+      <c r="H59" t="b">
         <v>1</v>
       </c>
-      <c r="D59" t="n">
-        <v>352</v>
-      </c>
-      <c r="E59" t="n">
-        <v>7969418399.941175</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.004150182207107088</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>12</v>
+      <c r="I59" t="n">
+        <v>27</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2028992049.663567</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5604585585.061458</v>
+        <v>2779583662.87675</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003039930727890195</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
+        <v>0.1253370196263454</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02173767451183235</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>31</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1389791878.603635</v>
       </c>
     </row>
     <row r="61">
@@ -2135,19 +2499,25 @@
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>4706631223.336095</v>
+        <v>3382611090.158778</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004830408585430682</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>22</v>
+        <v>0.17600532515268</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02180492373582497</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>33</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1691305489.404603</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5279922415.893199</v>
+        <v>1526454617.101991</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003629307595490956</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>17</v>
+        <v>0.1539531442718929</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04052690757533584</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>763227295.5206542</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6738171316.976544</v>
+        <v>5049598170.462544</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004366391694041553</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>23</v>
+        <v>0.0933415244717456</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04517461685500685</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>28</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2524799100.726005</v>
       </c>
     </row>
     <row r="64">
@@ -2219,19 +2601,25 @@
         <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4273475789.889766</v>
+        <v>5260089243.805419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004280057124648361</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1607043053311261</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02147351376209416</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>31</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2630044746.328952</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
+        <v>5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>527</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5547510829.293053</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1714367447861635</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02759639547348228</v>
+      </c>
+      <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="D65" t="n">
-        <v>507</v>
-      </c>
-      <c r="E65" t="n">
-        <v>6266696583.855065</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.005689707857505106</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>26</v>
+      <c r="I65" t="n">
+        <v>35</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2773755340.830902</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5521387491.264558</v>
+        <v>4417524707.143608</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003847210604781241</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>20</v>
+        <v>0.09795620515869269</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03995317760825746</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>29</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2208762349.480013</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6422194224.125769</v>
+        <v>2879401709.457178</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004465936382771402</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>19</v>
+        <v>0.1018684558121703</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04742296012454929</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>32</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1439700883.138439</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8053931951.396045</v>
+        <v>5650986206.287237</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002948784123962876</v>
-      </c>
-      <c r="G68" t="b">
+        <v>0.150857146529404</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03235211573538489</v>
+      </c>
+      <c r="H68" t="b">
         <v>1</v>
       </c>
-      <c r="H68" t="n">
-        <v>20</v>
+      <c r="I68" t="n">
+        <v>31</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2825493198.900419</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6355380419.2344</v>
+        <v>1832434412.038888</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008621167236192238</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>22</v>
+        <v>0.1789159722645875</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05779056977878474</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>916217189.2632359</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7349935703.972775</v>
+        <v>2604665817.844982</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003429141649697601</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.06969681205353047</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03681373554757666</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>28</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1302332860.107121</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4889722396.086625</v>
+        <v>3901070798.695724</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003653208921956442</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1681861286670972</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0329416565904161</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>36</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1950535422.92751</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7859285461.345778</v>
+        <v>1460836719.291728</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002239411556675467</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>21</v>
+        <v>0.06743585745403338</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03481654795290413</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>730418392.8580769</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6956669716.483119</v>
+        <v>2948203141.398498</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001360200840263909</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>23</v>
+        <v>0.08036085980934518</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04517157576285562</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>39</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1474101571.351709</v>
       </c>
     </row>
     <row r="74">
@@ -2499,19 +2941,25 @@
         <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4701570446.997543</v>
+        <v>2788308408.847031</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003502667841958536</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>22</v>
+        <v>0.1516733918987114</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03165714482469679</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>34</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1394154288.041496</v>
       </c>
     </row>
     <row r="75">
@@ -2527,19 +2975,25 @@
         <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5469323487.948911</v>
+        <v>1910683442.116071</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004421052866710668</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>19</v>
+        <v>0.1065331182867219</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03246925427881295</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>955341693.5477635</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6610817781.454022</v>
+        <v>3625632243.568295</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002697231191248488</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>20</v>
+        <v>0.09083268561439303</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02526253995661152</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>21</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1812816090.724457</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7758426135.237592</v>
+        <v>1413721036.4487</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005999442200152402</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>32</v>
+        <v>0.1570022947188991</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.03104698968101057</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>706860493.1150657</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6462679444.509928</v>
+        <v>3804977877.707766</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004515524260985097</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+        <v>0.1102391632153865</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04976913407445034</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>35</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1902488918.486906</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6638986283.149232</v>
+        <v>1207529989.324064</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002136912648434952</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>21</v>
+        <v>0.1589150656490776</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02686518832413625</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>603764977.6435907</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6821238420.428008</v>
+        <v>4798026125.09056</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002771423135290416</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>32</v>
+        <v>0.08917583778236871</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03811311188765741</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2399013101.626845</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4691767845.864761</v>
+        <v>3982774962.695396</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004719660269830653</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>17</v>
+        <v>0.1304051261760614</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03211784941350571</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>24</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1991387443.842398</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5318814072.644943</v>
+        <v>4230142606.206474</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00553204530434954</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>19</v>
+        <v>0.1636861217036027</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02044369908823376</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>37</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2115071329.943573</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10935785794.52408</v>
+        <v>1747219351.090041</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003542720070915998</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>30</v>
+        <v>0.1284937181746117</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04506764629056755</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>873609629.3248553</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5733374959.85168</v>
+        <v>1594776476.357172</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003909891176250861</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>26</v>
+        <v>0.08068269957971469</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03634435531444383</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>797388302.4395328</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3880275622.017522</v>
+        <v>2490386814.051563</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003475566178420214</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.1413095895363141</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04419919627871924</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1245193410.860249</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8577627871.89107</v>
+        <v>1922756090.830881</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001861639734921171</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>34</v>
+        <v>0.1416966526718737</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02415911723022874</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>9</v>
+      </c>
+      <c r="J86" t="n">
+        <v>961378062.2311367</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4320379837.614927</v>
+        <v>1187583243.015761</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001305848507166641</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.130568483184597</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03999303988319835</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>593791673.8326749</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6760651178.383539</v>
+        <v>2749093853.022087</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005275543617913071</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>22</v>
+        <v>0.1557722994418851</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02894146095666321</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>39</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1374546932.09801</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5653108095.572374</v>
+        <v>2683934646.887784</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00411717990082138</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>21</v>
+        <v>0.1249953118652</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02713093659159716</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>34</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1341967384.65836</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4748201011.151686</v>
+        <v>2058975250.409506</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002442082113931976</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>18</v>
+        <v>0.08933722525804101</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04188730549080281</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1029487706.156201</v>
       </c>
     </row>
     <row r="91">
@@ -2975,19 +3519,25 @@
         <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5296414122.911777</v>
+        <v>1899277887.862232</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003789412385857545</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>29</v>
+        <v>0.1556462381502878</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0446215311647924</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>949638929.5545136</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3883196312.342414</v>
+        <v>2908120953.313832</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003695199941977455</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.0932330778123124</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04038713051202844</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1454060491.362578</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6486355321.69658</v>
+        <v>3586553444.72376</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001404668221455894</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>35</v>
+        <v>0.1197188810058424</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03817202257518338</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>29</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1793276749.622468</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7485758063.481256</v>
+        <v>1546597523.826189</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001216110749350625</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>32</v>
+        <v>0.1394168512392663</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02844866176822543</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>773298701.2267994</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7551776360.403268</v>
+        <v>2642706149.542696</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002122715972501754</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>25</v>
+        <v>0.1116983441638668</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03529619571598681</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>24</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1321353100.421068</v>
       </c>
     </row>
     <row r="96">
@@ -3115,19 +3689,25 @@
         <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6896572840.934413</v>
+        <v>2012811661.335562</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002129744814641473</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>26</v>
+        <v>0.1081612193273017</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03344780279568967</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1006405816.212843</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7517523598.370303</v>
+        <v>3765342474.627282</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00410647844249879</v>
-      </c>
-      <c r="G97" t="b">
+        <v>0.10792908065701</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0281955583244296</v>
+      </c>
+      <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="H97" t="n">
-        <v>25</v>
+      <c r="I97" t="n">
+        <v>31</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1882671274.763131</v>
       </c>
     </row>
     <row r="98">
@@ -3171,19 +3757,25 @@
         <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8083506979.777322</v>
+        <v>3259113952.417596</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00346975493265569</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>36</v>
+        <v>0.08124905665853219</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0286239334083276</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>26</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1629556978.398719</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3729748459.263985</v>
+        <v>2565792949.477991</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005946168993648413</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1355329023212819</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03111471840026721</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>32</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1282896429.147114</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5876367845.731452</v>
+        <v>2934500432.666477</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002279552675800704</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1433072631234409</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02536148683198232</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>30</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1467250201.897987</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6896386737.865516</v>
+        <v>3069073069.876918</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001584448721153796</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>32</v>
+        <v>0.2087817292990211</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0421717211578491</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>41</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1534536633.084927</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_98.xlsx
+++ b/output/fit_clients/fit_round_98.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1755331537.407903</v>
+        <v>2510528101.387463</v>
       </c>
       <c r="F2" t="n">
-        <v>0.113475146552811</v>
+        <v>0.1004238506810941</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03554793445232425</v>
+        <v>0.03846676939455516</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>877665731.380666</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1619923943.876769</v>
+        <v>1677111568.27353</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1183409523862199</v>
+        <v>0.1155520575099962</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0486783116825096</v>
+        <v>0.04468362330904792</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>809961953.0718966</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4357829067.741557</v>
+        <v>3689545898.085145</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1389236404160763</v>
+        <v>0.1107641867481133</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02906126133544185</v>
+        <v>0.02651737478046839</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2178914573.330524</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3995229172.256662</v>
+        <v>3923447372.876647</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1031496539870477</v>
+        <v>0.07361337331801784</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04554692980271825</v>
+        <v>0.03162439156674431</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>37</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1997614590.103579</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2310460119.381842</v>
+        <v>2700227674.557721</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1325922141528808</v>
+        <v>0.145529643479914</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03827910747350759</v>
+        <v>0.03853073136730643</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>16</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1155230055.616528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2061233012.794499</v>
+        <v>2398938172.137643</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06370701302190236</v>
+        <v>0.07854261371890843</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04972344742850036</v>
+        <v>0.03836830932845865</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1030616561.590372</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3719835993.140205</v>
+        <v>3113084121.513101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2008221059344414</v>
+        <v>0.1954346059550882</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02142114764499115</v>
+        <v>0.03150045469646597</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>31</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1859918127.604547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1531131397.737491</v>
+        <v>2236658263.654505</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1448139208121796</v>
+        <v>0.120085655239092</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03285884425672096</v>
+        <v>0.03519872539785425</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>765565790.4787397</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3952913440.543945</v>
+        <v>4819319450.223858</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1621959182576866</v>
+        <v>0.185013249041096</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04637094758528072</v>
+        <v>0.05153646735718675</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>42</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1976456738.455863</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3755147916.120371</v>
+        <v>2703083570.476857</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1877109769392634</v>
+        <v>0.1518176271733232</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04726738055228599</v>
+        <v>0.04244476144125989</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>41</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1877573953.603046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2851975345.391326</v>
+        <v>2310410331.769583</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1600535902105867</v>
+        <v>0.1891717847202323</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03941585606943251</v>
+        <v>0.03417909189238113</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>35</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1425987677.064286</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5314465156.843307</v>
+        <v>4206797264.178802</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08801836242152106</v>
+        <v>0.07909387001634639</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02105920032699462</v>
+        <v>0.03000318134611067</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>33</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2657232566.501129</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3708561977.030057</v>
+        <v>2446066885.322849</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1609831054341385</v>
+        <v>0.1688695222945032</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03148348175051523</v>
+        <v>0.03737184126406224</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>32</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1854280971.558</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1574713612.119774</v>
+        <v>1226624206.460027</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0787424944600911</v>
+        <v>0.1008650688743854</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03733500808092486</v>
+        <v>0.0476747415141426</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>787356908.4242035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2502174745.841797</v>
+        <v>1794895528.492992</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09825623139643248</v>
+        <v>0.07917143003883316</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05149870296954116</v>
+        <v>0.0447631851575688</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1251087403.472118</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4473324507.810733</v>
+        <v>5198346074.930839</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1273046418497209</v>
+        <v>0.1590814025384892</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04419677499743319</v>
+        <v>0.03683767252154844</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>29</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2236662264.988219</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3411305920.918746</v>
+        <v>2546755213.299203</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1562225796809824</v>
+        <v>0.1204590311105665</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02076773745396336</v>
+        <v>0.02701864379283312</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>32</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1705652960.851105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1076317054.443905</v>
+        <v>837490394.2364736</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1773787265276129</v>
+        <v>0.1758713884203527</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02335219917414445</v>
+        <v>0.02051439111023807</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>538158574.9518863</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2317863490.804716</v>
+        <v>2036219343.356734</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1189543295230865</v>
+        <v>0.1555817962912728</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02480265655714498</v>
+        <v>0.02226213519615943</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1158931737.832834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2016981129.896497</v>
+        <v>2052783155.191166</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08737017921422233</v>
+        <v>0.06673834939680243</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03806186246844155</v>
+        <v>0.03928181960944324</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1008490599.20304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3944024314.658654</v>
+        <v>3869113645.005742</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09234214128367738</v>
+        <v>0.1127483393754716</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04736558256570298</v>
+        <v>0.05042584416934139</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>27</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1972012162.257056</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>936020359.7313814</v>
+        <v>1071672751.450481</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1804475955554813</v>
+        <v>0.1403242110672367</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04627988649702852</v>
+        <v>0.0427785644317027</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>468010260.7516371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3573537057.274704</v>
+        <v>3757093113.842895</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09160678282662146</v>
+        <v>0.1367899031417917</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03592440333373591</v>
+        <v>0.02497672377001503</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>29</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1786768525.24868</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1452375225.39344</v>
+        <v>1289751413.710826</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09034221584538717</v>
+        <v>0.1178655310977338</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02339167734132798</v>
+        <v>0.01878309193928354</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>726187572.5323148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1438318081.402618</v>
+        <v>1329777879.795511</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09901713769909239</v>
+        <v>0.108133109230847</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02555071071883508</v>
+        <v>0.03377918352006028</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>719159120.0140808</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4179506190.100254</v>
+        <v>4174322048.447454</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1437825097408995</v>
+        <v>0.1026901866423222</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01819489622271878</v>
+        <v>0.02238045460017304</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>22</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2089753096.204227</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2679744398.853167</v>
+        <v>2880844860.970578</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1126504945957581</v>
+        <v>0.1492075516635256</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03192254417272096</v>
+        <v>0.04823375363376441</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>32</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1339872182.809394</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4616358910.435037</v>
+        <v>4443337537.095601</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1176833548413223</v>
+        <v>0.1113934297161196</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03218084623507582</v>
+        <v>0.03456900237015903</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>45</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2308179429.269292</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2241203092.946076</v>
+        <v>1717048022.013084</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1078439385885282</v>
+        <v>0.08902583988203897</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02986060576191981</v>
+        <v>0.02703237671058565</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1120601611.309051</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1359661408.319627</v>
+        <v>1182156399.054238</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07861983975409245</v>
+        <v>0.102956493004526</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03431115188954241</v>
+        <v>0.03794487238801152</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>679830617.9778516</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1643290986.120592</v>
+        <v>1812654953.075948</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09858484399131666</v>
+        <v>0.07525259619119597</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02985305274895203</v>
+        <v>0.03739824576631398</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>821645590.9953345</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2590272154.383159</v>
+        <v>2529498519.393118</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2068661294659137</v>
+        <v>0.1934598480527182</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06023829517267909</v>
+        <v>0.04891773498441995</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>28</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1295136107.639119</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1324512101.978384</v>
+        <v>1209157556.859375</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1032462712407435</v>
+        <v>0.0971637602448827</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01728170837460492</v>
+        <v>0.02084877156351874</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>662256035.5408733</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>823705642.9104047</v>
+        <v>1075703951.241544</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09608756428304593</v>
+        <v>0.07881909971919042</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03784112649095243</v>
+        <v>0.03182900747282801</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>411852878.6272205</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2895343887.139073</v>
+        <v>2573339051.527474</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1457194707936877</v>
+        <v>0.1606572866390058</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02238493165790267</v>
+        <v>0.0267963826449798</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>24</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1447671933.794409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2135548872.091097</v>
+        <v>2339206531.229549</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1015806822949289</v>
+        <v>0.08622314563401706</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03677370316580075</v>
+        <v>0.03036817879413599</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>24</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1067774481.92509</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2164178605.32341</v>
+        <v>1343643630.167522</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08448224894055233</v>
+        <v>0.09867088559545122</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02823111742456197</v>
+        <v>0.03702542961513786</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1082089258.035532</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2182906523.38204</v>
+        <v>2145450058.485836</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1744147172717676</v>
+        <v>0.1171671261068224</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02451717889099447</v>
+        <v>0.0240702539881141</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1091453228.377901</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1547828152.217673</v>
+        <v>1614082867.739042</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1273430729019309</v>
+        <v>0.1552601837017896</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0540880305546157</v>
+        <v>0.05038693881446522</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>773914030.2315964</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2030504978.975948</v>
+        <v>2311312853.078183</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1474546859815746</v>
+        <v>0.1520816278746671</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03939545251844606</v>
+        <v>0.04281183355934088</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1015252560.638124</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4045120873.202606</v>
+        <v>2939747561.674308</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08973341168105867</v>
+        <v>0.09210350832996773</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03640748937298562</v>
+        <v>0.04556431123272822</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>32</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2022560468.934988</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2441509930.027824</v>
+        <v>2359674780.949881</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1645914679675979</v>
+        <v>0.1850851940881302</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02316630593884341</v>
+        <v>0.01606703685758351</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>32</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1220755019.494789</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1835167757.886888</v>
+        <v>1551375773.782559</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1011297965778006</v>
+        <v>0.09460447193675363</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03438763669206718</v>
+        <v>0.03472044966170094</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>917583952.3212904</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2007024065.96336</v>
+        <v>2217700271.330659</v>
       </c>
       <c r="F45" t="n">
-        <v>0.158561532372645</v>
+        <v>0.1207379727359287</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05517593017083015</v>
+        <v>0.04013772891873701</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1003512024.469411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5473599808.343083</v>
+        <v>5104566314.926763</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1340364274862889</v>
+        <v>0.1129337513437261</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04015461364209549</v>
+        <v>0.05775576057567667</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>35</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2736799958.033097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3463284522.943701</v>
+        <v>4562164028.06878</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1227499891057188</v>
+        <v>0.1294241888603182</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03843494728607784</v>
+        <v>0.0594429994733268</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>26</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1731642230.10732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4238308770.533219</v>
+        <v>3516975165.016905</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06832602038131948</v>
+        <v>0.09843208845479957</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03162757146100106</v>
+        <v>0.03834315593754518</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>33</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2119154405.72206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1643892452.158778</v>
+        <v>1349076708.664357</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1658997647936882</v>
+        <v>0.1320700265731033</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04275374967081408</v>
+        <v>0.03448178848921251</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>821946235.6470222</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4038833040.758477</v>
+        <v>3046855921.698029</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1696824015100487</v>
+        <v>0.1380693433215938</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0354252461290367</v>
+        <v>0.04215144416815758</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>34</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2019416506.226033</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1456322160.287481</v>
+        <v>1468584702.051294</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1353395648398222</v>
+        <v>0.1876135861385253</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03483418526762024</v>
+        <v>0.03769238950379855</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>728161090.0964397</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4528871210.206239</v>
+        <v>4612319109.478207</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1347813891206036</v>
+        <v>0.127480578398961</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04393068609044881</v>
+        <v>0.04107617521559798</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>41</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2264435630.386237</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3774418825.780457</v>
+        <v>3146961512.779318</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1673166483460098</v>
+        <v>0.1829933550627496</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02333710213535642</v>
+        <v>0.02152376497593565</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>28</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1887209391.793836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3234604551.735653</v>
+        <v>4332464204.87693</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1142933954372535</v>
+        <v>0.126064527991107</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05261733178107243</v>
+        <v>0.04235201198529687</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>34</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1617302279.794279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4399506553.373533</v>
+        <v>4891040011.139113</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2222772953011958</v>
+        <v>0.1640169610600409</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02594661854618535</v>
+        <v>0.02935957614016097</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2199753269.141877</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1337064660.485529</v>
+        <v>1241252481.685554</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1183164422327779</v>
+        <v>0.1463626230703423</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04688600120262199</v>
+        <v>0.05732991567149059</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>668532396.5697614</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3220825073.726659</v>
+        <v>4076940746.597499</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1689626440936635</v>
+        <v>0.1609665574797052</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01911260063570748</v>
+        <v>0.01724298217622261</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>31</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1610412559.748715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1475240146.903404</v>
+        <v>1363568722.655182</v>
       </c>
       <c r="F58" t="n">
-        <v>0.15973099162539</v>
+        <v>0.1537879120709639</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02791066445241688</v>
+        <v>0.03043324806446097</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>737620106.7695013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4057984153.149109</v>
+        <v>3999755022.937459</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08393067635193922</v>
+        <v>0.1189141654287935</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04919447999850725</v>
+        <v>0.04879917086877734</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>27</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2028992049.663567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2779583662.87675</v>
+        <v>2578423196.338609</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1253370196263454</v>
+        <v>0.1841369991028016</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02173767451183235</v>
+        <v>0.03168936148034322</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>31</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1389791878.603635</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3382611090.158778</v>
+        <v>2063826179.10945</v>
       </c>
       <c r="F61" t="n">
-        <v>0.17600532515268</v>
+        <v>0.1690306990003791</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02180492373582497</v>
+        <v>0.03114752395934047</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>33</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1691305489.404603</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1526454617.101991</v>
+        <v>1708541568.358921</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1539531442718929</v>
+        <v>0.1661382501224071</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04052690757533584</v>
+        <v>0.0474276291342464</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>763227295.5206542</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5049598170.462544</v>
+        <v>3942619950.900929</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0933415244717456</v>
+        <v>0.106777468123121</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04517461685500685</v>
+        <v>0.03063216767758493</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>28</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2524799100.726005</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5260089243.805419</v>
+        <v>3695131924.903529</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1607043053311261</v>
+        <v>0.1724094617629526</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02147351376209416</v>
+        <v>0.02204056351288319</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>31</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2630044746.328952</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5547510829.293053</v>
+        <v>4455426535.470806</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1714367447861635</v>
+        <v>0.123169452860266</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02759639547348228</v>
+        <v>0.02187132474739868</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>35</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2773755340.830902</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4417524707.143608</v>
+        <v>3473404966.996449</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09795620515869269</v>
+        <v>0.1523784474223887</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03995317760825746</v>
+        <v>0.04009724332757586</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>29</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2208762349.480013</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2879401709.457178</v>
+        <v>2534230293.896043</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1018684558121703</v>
+        <v>0.06994123400523947</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04742296012454929</v>
+        <v>0.04629301895348827</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>32</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1439700883.138439</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5650986206.287237</v>
+        <v>4768214669.724895</v>
       </c>
       <c r="F68" t="n">
-        <v>0.150857146529404</v>
+        <v>0.1021648554923101</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03235211573538489</v>
+        <v>0.04144308958822421</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>31</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2825493198.900419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1832434412.038888</v>
+        <v>2490151861.990835</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1789159722645875</v>
+        <v>0.1357651900252854</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05779056977878474</v>
+        <v>0.04056259447903038</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>916217189.2632359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2604665817.844982</v>
+        <v>2334467437.979013</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06969681205353047</v>
+        <v>0.06894951303313786</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03681373554757666</v>
+        <v>0.0445991486857102</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>28</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1302332860.107121</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3901070798.695724</v>
+        <v>4362120788.087706</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1681861286670972</v>
+        <v>0.1366792547850503</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0329416565904161</v>
+        <v>0.02460033822368593</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>36</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1950535422.92751</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1460836719.291728</v>
+        <v>1576373189.787779</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06743585745403338</v>
+        <v>0.0896577419909665</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03481654795290413</v>
+        <v>0.04866749749630807</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>730418392.8580769</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2948203141.398498</v>
+        <v>3412121557.426772</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08036085980934518</v>
+        <v>0.108133955162291</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04517157576285562</v>
+        <v>0.03880402781778958</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>39</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1474101571.351709</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2788308408.847031</v>
+        <v>3229994319.31855</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1516733918987114</v>
+        <v>0.1274757099218163</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03165714482469679</v>
+        <v>0.03002866193296048</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>34</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1394154288.041496</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1910683442.116071</v>
+        <v>1676577516.622112</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1065331182867219</v>
+        <v>0.1614054170678734</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03246925427881295</v>
+        <v>0.02530093217803188</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>955341693.5477635</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3625632243.568295</v>
+        <v>5202531279.695695</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09083268561439303</v>
+        <v>0.1011105525997968</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02526253995661152</v>
+        <v>0.02228695926966372</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>21</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1812816090.724457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1413721036.4487</v>
+        <v>2054208499.247751</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1570022947188991</v>
+        <v>0.1433377066171127</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03104698968101057</v>
+        <v>0.02863701364721539</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>706860493.1150657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3804977877.707766</v>
+        <v>4135868550.797759</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1102391632153865</v>
+        <v>0.09332166041568514</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04976913407445034</v>
+        <v>0.04262722856474132</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>35</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1902488918.486906</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1207529989.324064</v>
+        <v>1679878501.823792</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1589150656490776</v>
+        <v>0.1393170273950821</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02686518832413625</v>
+        <v>0.02776869965398091</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>603764977.6435907</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4798026125.09056</v>
+        <v>4144890528.671406</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08917583778236871</v>
+        <v>0.07139123703122049</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03811311188765741</v>
+        <v>0.0322909586067335</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>20</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2399013101.626845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3982774962.695396</v>
+        <v>3809340629.713217</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1304051261760614</v>
+        <v>0.1141874163353294</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03211784941350571</v>
+        <v>0.03043906048776748</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1991387443.842398</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4230142606.206474</v>
+        <v>3923951415.646374</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1636861217036027</v>
+        <v>0.202262968939144</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02044369908823376</v>
+        <v>0.01994513082987604</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>37</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2115071329.943573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1747219351.090041</v>
+        <v>2375834800.419566</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1284937181746117</v>
+        <v>0.1291784256676039</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04506764629056755</v>
+        <v>0.04091978335530012</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>873609629.3248553</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1594776476.357172</v>
+        <v>2381824770.887284</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08068269957971469</v>
+        <v>0.09079984550847939</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03634435531444383</v>
+        <v>0.04141677862694202</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>797388302.4395328</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2490386814.051563</v>
+        <v>2717424550.623257</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1413095895363141</v>
+        <v>0.1658473355369282</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04419919627871924</v>
+        <v>0.04928576995719542</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>36</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1245193410.860249</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1922756090.830881</v>
+        <v>2471359640.264974</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1416966526718737</v>
+        <v>0.1304710342557999</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02415911723022874</v>
+        <v>0.02007411750656413</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>9</v>
-      </c>
-      <c r="J86" t="n">
-        <v>961378062.2311367</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1187583243.015761</v>
+        <v>1388875965.873057</v>
       </c>
       <c r="F87" t="n">
-        <v>0.130568483184597</v>
+        <v>0.1515530828505114</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03999303988319835</v>
+        <v>0.03918110720445985</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>593791673.8326749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2749093853.022087</v>
+        <v>3239166972.827104</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1557722994418851</v>
+        <v>0.1076634396070163</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02894146095666321</v>
+        <v>0.02414962999469859</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>39</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1374546932.09801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2683934646.887784</v>
+        <v>2208381259.427343</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1249953118652</v>
+        <v>0.1314917365847578</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02713093659159716</v>
+        <v>0.04160511692186613</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>34</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1341967384.65836</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2058975250.409506</v>
+        <v>1684783230.94191</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08933722525804101</v>
+        <v>0.08744339821594424</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04188730549080281</v>
+        <v>0.04757285995673094</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1029487706.156201</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1899277887.862232</v>
+        <v>1330776862.551687</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1556462381502878</v>
+        <v>0.1587310119660333</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0446215311647924</v>
+        <v>0.04029883315556076</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>949638929.5545136</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2908120953.313832</v>
+        <v>2409912815.504149</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0932330778123124</v>
+        <v>0.09358847691033055</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04038713051202844</v>
+        <v>0.03137696884551931</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1454060491.362578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3586553444.72376</v>
+        <v>3483104679.433434</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1197188810058424</v>
+        <v>0.133935433257392</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03817202257518338</v>
+        <v>0.04376619373337225</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>29</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1793276749.622468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1546597523.826189</v>
+        <v>2032186853.828417</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1394168512392663</v>
+        <v>0.1102242246572879</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02844866176822543</v>
+        <v>0.04016284995550606</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>773298701.2267994</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2642706149.542696</v>
+        <v>2238734543.853626</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1116983441638668</v>
+        <v>0.1261738474096331</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03529619571598681</v>
+        <v>0.04306532429132002</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>24</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1321353100.421068</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2012811661.335562</v>
+        <v>1672214989.878816</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1081612193273017</v>
+        <v>0.1348183345549837</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03344780279568967</v>
+        <v>0.02976077473554982</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1006405816.212843</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3765342474.627282</v>
+        <v>5335737738.134199</v>
       </c>
       <c r="F97" t="n">
-        <v>0.10792908065701</v>
+        <v>0.1571348810938735</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0281955583244296</v>
+        <v>0.02125414657156203</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>31</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1882671274.763131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3259113952.417596</v>
+        <v>2530042609.711327</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08124905665853219</v>
+        <v>0.1089882364378752</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0286239334083276</v>
+        <v>0.02796946261914791</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>26</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1629556978.398719</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2565792949.477991</v>
+        <v>3147633278.471637</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1355329023212819</v>
+        <v>0.1033635532148131</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03111471840026721</v>
+        <v>0.03145324895798598</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>32</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1282896429.147114</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2934500432.666477</v>
+        <v>3331745704.189529</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1433072631234409</v>
+        <v>0.1389855199490221</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02536148683198232</v>
+        <v>0.02570577021147249</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>30</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1467250201.897987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3069073069.876918</v>
+        <v>2416493419.201706</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2087817292990211</v>
+        <v>0.2165918259356532</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0421717211578491</v>
+        <v>0.0480680021322861</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>41</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1534536633.084927</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_98.xlsx
+++ b/output/fit_clients/fit_round_98.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2510528101.387463</v>
+        <v>2003143021.26017</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1004238506810941</v>
+        <v>0.0786397640923899</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03846676939455516</v>
+        <v>0.03724347769284063</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1677111568.27353</v>
+        <v>1668656221.14703</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1155520575099962</v>
+        <v>0.1343863537436885</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04468362330904792</v>
+        <v>0.03882794793857513</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3689545898.085145</v>
+        <v>4205287535.779665</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1107641867481133</v>
+        <v>0.1299368183650611</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02651737478046839</v>
+        <v>0.03469637028880625</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3923447372.876647</v>
+        <v>3543406235.662488</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07361337331801784</v>
+        <v>0.08037994333008061</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03162439156674431</v>
+        <v>0.03600265474444617</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2700227674.557721</v>
+        <v>2655213174.33778</v>
       </c>
       <c r="F6" t="n">
-        <v>0.145529643479914</v>
+        <v>0.1100043195857639</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03853073136730643</v>
+        <v>0.04917183974748076</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2398938172.137643</v>
+        <v>2135005183.73004</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07854261371890843</v>
+        <v>0.08961933175444176</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03836830932845865</v>
+        <v>0.04035185492588939</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3113084121.513101</v>
+        <v>2897378011.778573</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1954346059550882</v>
+        <v>0.1583542493540631</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03150045469646597</v>
+        <v>0.02460217751557742</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2236658263.654505</v>
+        <v>1620686725.740354</v>
       </c>
       <c r="F9" t="n">
-        <v>0.120085655239092</v>
+        <v>0.1217063855185669</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03519872539785425</v>
+        <v>0.02813484386641333</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4819319450.223858</v>
+        <v>4089168534.172716</v>
       </c>
       <c r="F10" t="n">
-        <v>0.185013249041096</v>
+        <v>0.1452753174719589</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05153646735718675</v>
+        <v>0.05256047343283905</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2703083570.476857</v>
+        <v>2838513054.06339</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1518176271733232</v>
+        <v>0.1325366048399826</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04244476144125989</v>
+        <v>0.03914452269777893</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2310410331.769583</v>
+        <v>3314801195.978107</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1891717847202323</v>
+        <v>0.1434161986184495</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03417909189238113</v>
+        <v>0.03475939958493898</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4206797264.178802</v>
+        <v>4826094229.79721</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07909387001634639</v>
+        <v>0.067547283343633</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03000318134611067</v>
+        <v>0.02886954636427847</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2446066885.322849</v>
+        <v>3805889509.305551</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1688695222945032</v>
+        <v>0.1325046506793597</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03737184126406224</v>
+        <v>0.03779141229056026</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1226624206.460027</v>
+        <v>1475445652.494569</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1008650688743854</v>
+        <v>0.07801891465379578</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0476747415141426</v>
+        <v>0.04867376723616388</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1794895528.492992</v>
+        <v>2482007225.579533</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07917143003883316</v>
+        <v>0.07756441274276306</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0447631851575688</v>
+        <v>0.04055927639441399</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5198346074.930839</v>
+        <v>4121193527.445446</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1590814025384892</v>
+        <v>0.1412558109136224</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03683767252154844</v>
+        <v>0.03789915152960653</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2546755213.299203</v>
+        <v>3065650246.80979</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1204590311105665</v>
+        <v>0.1496178196343124</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02701864379283312</v>
+        <v>0.02863310683245687</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>837490394.2364736</v>
+        <v>851129670.353456</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1758713884203527</v>
+        <v>0.1222917323786439</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02051439111023807</v>
+        <v>0.02684913778848941</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2036219343.356734</v>
+        <v>2239082109.468262</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1555817962912728</v>
+        <v>0.13434335516922</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02226213519615943</v>
+        <v>0.02604144689244252</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2052783155.191166</v>
+        <v>2183354101.479855</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06673834939680243</v>
+        <v>0.09568518248607656</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03928181960944324</v>
+        <v>0.0390317724020979</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3869113645.005742</v>
+        <v>2649131595.22874</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1127483393754716</v>
+        <v>0.09879078493950501</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05042584416934139</v>
+        <v>0.04325788435510252</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1071672751.450481</v>
+        <v>1129836591.543867</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1403242110672367</v>
+        <v>0.1373319541550808</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0427785644317027</v>
+        <v>0.04887187577698458</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3757093113.842895</v>
+        <v>2661372805.549691</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1367899031417917</v>
+        <v>0.1296410566451383</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02497672377001503</v>
+        <v>0.02819835466018462</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1289751413.710826</v>
+        <v>1426292542.41137</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1178655310977338</v>
+        <v>0.1012803941571308</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01878309193928354</v>
+        <v>0.02699145689146279</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1329777879.795511</v>
+        <v>1428486021.611469</v>
       </c>
       <c r="F26" t="n">
-        <v>0.108133109230847</v>
+        <v>0.1148053559960718</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03377918352006028</v>
+        <v>0.02353245915649698</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4174322048.447454</v>
+        <v>3014291510.518168</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1026901866423222</v>
+        <v>0.1458040003780562</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02238045460017304</v>
+        <v>0.02524758282392485</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2880844860.970578</v>
+        <v>3337035960.080849</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1492075516635256</v>
+        <v>0.1036434396769707</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04823375363376441</v>
+        <v>0.04986685322103655</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4443337537.095601</v>
+        <v>3712839004.173863</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1113934297161196</v>
+        <v>0.106590075282218</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03456900237015903</v>
+        <v>0.03581071545646271</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1717048022.013084</v>
+        <v>2050970027.208811</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08902583988203897</v>
+        <v>0.1168931313021034</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02703237671058565</v>
+        <v>0.02468182009553436</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1182156399.054238</v>
+        <v>1281037542.950899</v>
       </c>
       <c r="F31" t="n">
-        <v>0.102956493004526</v>
+        <v>0.1092641804062581</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03794487238801152</v>
+        <v>0.03450270487171617</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1812654953.075948</v>
+        <v>1890059832.402843</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07525259619119597</v>
+        <v>0.07325270068003235</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03739824576631398</v>
+        <v>0.03478406814034989</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2529498519.393118</v>
+        <v>2344666692.019292</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1934598480527182</v>
+        <v>0.1551376887107318</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04891773498441995</v>
+        <v>0.03868056409471476</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1209157556.859375</v>
+        <v>1045045681.0047</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0971637602448827</v>
+        <v>0.09610841611759111</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02084877156351874</v>
+        <v>0.02131986704496237</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1075703951.241544</v>
+        <v>864250486.2884109</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07881909971919042</v>
+        <v>0.1041076826345051</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03182900747282801</v>
+        <v>0.03887167651120553</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2573339051.527474</v>
+        <v>2634658521.0955</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1606572866390058</v>
+        <v>0.1670840265160612</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0267963826449798</v>
+        <v>0.02205889104754026</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2339206531.229549</v>
+        <v>2853244659.765047</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08622314563401706</v>
+        <v>0.1079384186166998</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03036817879413599</v>
+        <v>0.03556906355557649</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1343643630.167522</v>
+        <v>1750159866.651365</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09867088559545122</v>
+        <v>0.0861360028935743</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03702542961513786</v>
+        <v>0.03627313186720279</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2145450058.485836</v>
+        <v>1997002823.430669</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1171671261068224</v>
+        <v>0.1758267861546679</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0240702539881141</v>
+        <v>0.02110522820342347</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1614082867.739042</v>
+        <v>1380843796.722497</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1552601837017896</v>
+        <v>0.1193625807774658</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05038693881446522</v>
+        <v>0.04474438962650117</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2311312853.078183</v>
+        <v>2558243626.738781</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1520816278746671</v>
+        <v>0.1288172946166458</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04281183355934088</v>
+        <v>0.0321034491916139</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2939747561.674308</v>
+        <v>3630360274.296576</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09210350832996773</v>
+        <v>0.1025088119048128</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04556431123272822</v>
+        <v>0.02883940727464273</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2359674780.949881</v>
+        <v>2968012667.373811</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1850851940881302</v>
+        <v>0.1580064331793463</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01606703685758351</v>
+        <v>0.0162779612399574</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1551375773.782559</v>
+        <v>2094815742.366829</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09460447193675363</v>
+        <v>0.07882258441199587</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03472044966170094</v>
+        <v>0.03228225112537022</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2217700271.330659</v>
+        <v>2403280084.797607</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1207379727359287</v>
+        <v>0.1360894417790178</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04013772891873701</v>
+        <v>0.04334588503233829</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5104566314.926763</v>
+        <v>5316736910.490487</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1129337513437261</v>
+        <v>0.1375835639828813</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05775576057567667</v>
+        <v>0.04208245284883486</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4562164028.06878</v>
+        <v>5028158734.654999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1294241888603182</v>
+        <v>0.122529155791948</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0594429994733268</v>
+        <v>0.05757111057866315</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3516975165.016905</v>
+        <v>4209253777.960452</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09843208845479957</v>
+        <v>0.1033150413681527</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03834315593754518</v>
+        <v>0.03255136797637036</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1349076708.664357</v>
+        <v>1851800536.822369</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1320700265731033</v>
+        <v>0.1942130015558349</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03448178848921251</v>
+        <v>0.04480136526071918</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3046855921.698029</v>
+        <v>3697453600.905665</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1380693433215938</v>
+        <v>0.109900196783629</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04215144416815758</v>
+        <v>0.04455951121086375</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1468584702.051294</v>
+        <v>1461721151.416529</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1876135861385253</v>
+        <v>0.1613344094391883</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03769238950379855</v>
+        <v>0.05276014536471722</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4612319109.478207</v>
+        <v>4013310317.665793</v>
       </c>
       <c r="F52" t="n">
-        <v>0.127480578398961</v>
+        <v>0.1212206977271715</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04107617521559798</v>
+        <v>0.05570453946075351</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3146961512.779318</v>
+        <v>2860694257.508053</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1829933550627496</v>
+        <v>0.1536948464271049</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02152376497593565</v>
+        <v>0.02316978426161075</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4332464204.87693</v>
+        <v>4774904308.136104</v>
       </c>
       <c r="F54" t="n">
-        <v>0.126064527991107</v>
+        <v>0.1371303227554923</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04235201198529687</v>
+        <v>0.03550415604169031</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4891040011.139113</v>
+        <v>4233978729.332398</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1640169610600409</v>
+        <v>0.1504013596435483</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02935957614016097</v>
+        <v>0.01984609536427494</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1241252481.685554</v>
+        <v>1714428213.028728</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1463626230703423</v>
+        <v>0.1570333485961627</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05732991567149059</v>
+        <v>0.04462519518894821</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4076940746.597499</v>
+        <v>4584484226.554041</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1609665574797052</v>
+        <v>0.1486699073328764</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01724298217622261</v>
+        <v>0.0221611736354838</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1363568722.655182</v>
+        <v>1260992050.991128</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1537879120709639</v>
+        <v>0.1538857373400306</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03043324806446097</v>
+        <v>0.03520364917764338</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3999755022.937459</v>
+        <v>4216337038.888736</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1189141654287935</v>
+        <v>0.09079851402508381</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04879917086877734</v>
+        <v>0.0326856407834494</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2578423196.338609</v>
+        <v>3766731748.148979</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1841369991028016</v>
+        <v>0.1946646085349107</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03168936148034322</v>
+        <v>0.02492252827774751</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2063826179.10945</v>
+        <v>2914572282.410936</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1690306990003791</v>
+        <v>0.1712107069500619</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03114752395934047</v>
+        <v>0.02310994994983604</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1708541568.358921</v>
+        <v>1322259351.227475</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1661382501224071</v>
+        <v>0.1345600628532449</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0474276291342464</v>
+        <v>0.04739715997965358</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3942619950.900929</v>
+        <v>4002785502.339378</v>
       </c>
       <c r="F63" t="n">
-        <v>0.106777468123121</v>
+        <v>0.1043254397137283</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03063216767758493</v>
+        <v>0.042852943502087</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3695131924.903529</v>
+        <v>3843771013.481205</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1724094617629526</v>
+        <v>0.1577090373136291</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02204056351288319</v>
+        <v>0.0262327177595281</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4455426535.470806</v>
+        <v>3847776982.622103</v>
       </c>
       <c r="F65" t="n">
-        <v>0.123169452860266</v>
+        <v>0.1590740118946511</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02187132474739868</v>
+        <v>0.03155902731209631</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3473404966.996449</v>
+        <v>5653604488.960601</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1523784474223887</v>
+        <v>0.1561642738993395</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04009724332757586</v>
+        <v>0.04050803543556079</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2534230293.896043</v>
+        <v>3025933075.660347</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06994123400523947</v>
+        <v>0.1035161678941037</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04629301895348827</v>
+        <v>0.04586928505513986</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4768214669.724895</v>
+        <v>5869112022.083358</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1021648554923101</v>
+        <v>0.1360184181433417</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04144308958822421</v>
+        <v>0.04243147985750512</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2490151861.990835</v>
+        <v>2348739904.058904</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1357651900252854</v>
+        <v>0.1488155598143501</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04056259447903038</v>
+        <v>0.05327563118176125</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2334467437.979013</v>
+        <v>3730878266.980705</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06894951303313786</v>
+        <v>0.07597460316149669</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0445991486857102</v>
+        <v>0.0299905270489137</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4362120788.087706</v>
+        <v>5011876458.519723</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1366792547850503</v>
+        <v>0.1595401137791747</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02460033822368593</v>
+        <v>0.03177212672893444</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1576373189.787779</v>
+        <v>1845573982.998022</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0896577419909665</v>
+        <v>0.1076974037186332</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04866749749630807</v>
+        <v>0.05168455708850087</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3412121557.426772</v>
+        <v>3278743572.732711</v>
       </c>
       <c r="F73" t="n">
-        <v>0.108133955162291</v>
+        <v>0.09617592963458348</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03880402781778958</v>
+        <v>0.03430134766243694</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3229994319.31855</v>
+        <v>2775849943.834019</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1274757099218163</v>
+        <v>0.1701731670778636</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03002866193296048</v>
+        <v>0.03398255137362555</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1676577516.622112</v>
+        <v>2333783152.080105</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1614054170678734</v>
+        <v>0.1419830380869247</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02530093217803188</v>
+        <v>0.02288271380730299</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5202531279.695695</v>
+        <v>3238235370.577412</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1011105525997968</v>
+        <v>0.1161632526325867</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02228695926966372</v>
+        <v>0.02718824778671765</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2054208499.247751</v>
+        <v>2138940703.718621</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1433377066171127</v>
+        <v>0.113725062062607</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02863701364721539</v>
+        <v>0.0195564481577883</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4135868550.797759</v>
+        <v>4698261159.390156</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09332166041568514</v>
+        <v>0.1240456809831147</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04262722856474132</v>
+        <v>0.05253427943648355</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1679878501.823792</v>
+        <v>1541338981.287552</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1393170273950821</v>
+        <v>0.1305681792082388</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02776869965398091</v>
+        <v>0.02897082600475125</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4144890528.671406</v>
+        <v>3489242434.847663</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07139123703122049</v>
+        <v>0.0808849099611665</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0322909586067335</v>
+        <v>0.02838456118390205</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3809340629.713217</v>
+        <v>4162871288.300794</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1141874163353294</v>
+        <v>0.1137934594843387</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03043906048776748</v>
+        <v>0.02650938852514704</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3923951415.646374</v>
+        <v>4976070518.469097</v>
       </c>
       <c r="F82" t="n">
-        <v>0.202262968939144</v>
+        <v>0.1930210339642685</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01994513082987604</v>
+        <v>0.02202281331752006</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2375834800.419566</v>
+        <v>2462220204.321604</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1291784256676039</v>
+        <v>0.1122143673883111</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04091978335530012</v>
+        <v>0.04450204220765124</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2381824770.887284</v>
+        <v>1774286130.964527</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09079984550847939</v>
+        <v>0.09707040351242405</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04141677862694202</v>
+        <v>0.04264130116537095</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2717424550.623257</v>
+        <v>2840638658.511836</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1658473355369282</v>
+        <v>0.1338861434563713</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04928576995719542</v>
+        <v>0.03781320101188521</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2471359640.264974</v>
+        <v>2642713518.226808</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1304710342557999</v>
+        <v>0.1336161198262136</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02007411750656413</v>
+        <v>0.02598108825371383</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1388875965.873057</v>
+        <v>1385689385.527503</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1515530828505114</v>
+        <v>0.1525300516426414</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03918110720445985</v>
+        <v>0.03601337495888574</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3239166972.827104</v>
+        <v>3271197946.593432</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1076634396070163</v>
+        <v>0.1111039180557456</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02414962999469859</v>
+        <v>0.03788975383271367</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2208381259.427343</v>
+        <v>2823730337.480519</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1314917365847578</v>
+        <v>0.1405098239122475</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04160511692186613</v>
+        <v>0.03010643742264058</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1684783230.94191</v>
+        <v>1716965261.368194</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08744339821594424</v>
+        <v>0.1356627199027712</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04757285995673094</v>
+        <v>0.04124188056295451</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1330776862.551687</v>
+        <v>2031409028.316918</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1587310119660333</v>
+        <v>0.1488509926307927</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04029883315556076</v>
+        <v>0.05380193026733078</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2409912815.504149</v>
+        <v>2515722334.898777</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09358847691033055</v>
+        <v>0.07655910839719313</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03137696884551931</v>
+        <v>0.04734963409382666</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3483104679.433434</v>
+        <v>3329848134.451281</v>
       </c>
       <c r="F93" t="n">
-        <v>0.133935433257392</v>
+        <v>0.1158840671894288</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04376619373337225</v>
+        <v>0.0455754508407649</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2032186853.828417</v>
+        <v>1587282140.965808</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1102242246572879</v>
+        <v>0.1600426235880754</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04016284995550606</v>
+        <v>0.03264515481168541</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2238734543.853626</v>
+        <v>2171800291.648367</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1261738474096331</v>
+        <v>0.08999474950205269</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04306532429132002</v>
+        <v>0.04307473443340686</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1672214989.878816</v>
+        <v>1490523917.001554</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1348183345549837</v>
+        <v>0.1059393138201255</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02976077473554982</v>
+        <v>0.04441477207164825</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5335737738.134199</v>
+        <v>4098707841.168479</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1571348810938735</v>
+        <v>0.1108775721764696</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02125414657156203</v>
+        <v>0.01882598062988958</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2530042609.711327</v>
+        <v>2672707726.306002</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1089882364378752</v>
+        <v>0.1060449449682785</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02796946261914791</v>
+        <v>0.02992879598712645</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3147633278.471637</v>
+        <v>3106072370.74568</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1033635532148131</v>
+        <v>0.1159374495245068</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03145324895798598</v>
+        <v>0.03075294840019642</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3331745704.189529</v>
+        <v>3458790038.045329</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1389855199490221</v>
+        <v>0.1374979880904188</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02570577021147249</v>
+        <v>0.02338040363619568</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2416493419.201706</v>
+        <v>3387713483.950228</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2165918259356532</v>
+        <v>0.2055959946150976</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0480680021322861</v>
+        <v>0.04869854759492278</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_98.xlsx
+++ b/output/fit_clients/fit_round_98.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2003143021.26017</v>
+        <v>1739957512.221212</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0786397640923899</v>
+        <v>0.09748562312191186</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03724347769284063</v>
+        <v>0.03007578640926179</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1668656221.14703</v>
+        <v>2072316706.335102</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1343863537436885</v>
+        <v>0.1301849461260742</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03882794793857513</v>
+        <v>0.04727564762145636</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4205287535.779665</v>
+        <v>4423711903.339672</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1299368183650611</v>
+        <v>0.1144029621616868</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03469637028880625</v>
+        <v>0.03424910003440466</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>61</v>
+      </c>
+      <c r="J4" t="n">
+        <v>98</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3543406235.662488</v>
+        <v>3198407227.552445</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08037994333008061</v>
+        <v>0.1075292545729899</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03600265474444617</v>
+        <v>0.03308418875297656</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>41</v>
+      </c>
+      <c r="J5" t="n">
+        <v>97</v>
+      </c>
+      <c r="K5" t="n">
+        <v>134.4312799993336</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2655213174.33778</v>
+        <v>2285573221.452609</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1100043195857639</v>
+        <v>0.143115572834211</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04917183974748076</v>
+        <v>0.04025056632393124</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2135005183.73004</v>
+        <v>2777597248.6363</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08961933175444176</v>
+        <v>0.07822630546101857</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04035185492588939</v>
+        <v>0.04783787333341219</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2897378011.778573</v>
+        <v>3960465267.191684</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1583542493540631</v>
+        <v>0.1433191863378036</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02460217751557742</v>
+        <v>0.0229786983415072</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>27</v>
+      </c>
+      <c r="J8" t="n">
+        <v>97</v>
+      </c>
+      <c r="K8" t="n">
+        <v>165.6077339412784</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1620686725.740354</v>
+        <v>1655020989.482066</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1217063855185669</v>
+        <v>0.1535055695030784</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02813484386641333</v>
+        <v>0.02826554265863023</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4089168534.172716</v>
+        <v>4476745733.0193</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1452753174719589</v>
+        <v>0.1407128215844483</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05256047343283905</v>
+        <v>0.05143172982491483</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>92</v>
+      </c>
+      <c r="J10" t="n">
+        <v>98</v>
+      </c>
+      <c r="K10" t="n">
+        <v>182.3790848493929</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2838513054.06339</v>
+        <v>4048657168.397836</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1325366048399826</v>
+        <v>0.1640379604603321</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03914452269777893</v>
+        <v>0.03254118240866493</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J11" t="n">
+        <v>98</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3314801195.978107</v>
+        <v>2295577206.188445</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1434161986184495</v>
+        <v>0.1239506935824704</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03475939958493898</v>
+        <v>0.03421243446569534</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4826094229.79721</v>
+        <v>3346226957.621233</v>
       </c>
       <c r="F13" t="n">
-        <v>0.067547283343633</v>
+        <v>0.06529468712982325</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02886954636427847</v>
+        <v>0.02381094788817823</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>49</v>
+      </c>
+      <c r="J13" t="n">
+        <v>96</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3805889509.305551</v>
+        <v>3785109041.165172</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1325046506793597</v>
+        <v>0.1714767994147142</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03779141229056026</v>
+        <v>0.03355137858962511</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" t="n">
+        <v>97</v>
+      </c>
+      <c r="K14" t="n">
+        <v>159.1455126623694</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1475445652.494569</v>
+        <v>1338157618.119239</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07801891465379578</v>
+        <v>0.06760529543169669</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04867376723616388</v>
+        <v>0.04077257842188492</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2482007225.579533</v>
+        <v>2712075308.67939</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07756441274276306</v>
+        <v>0.07399452047367397</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04055927639441399</v>
+        <v>0.04424555990609988</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4121193527.445446</v>
+        <v>4162791965.349806</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1412558109136224</v>
+        <v>0.1613141688535951</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03789915152960653</v>
+        <v>0.03306719472061917</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>47</v>
+      </c>
+      <c r="J17" t="n">
+        <v>98</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3065650246.80979</v>
+        <v>3050417518.255275</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1496178196343124</v>
+        <v>0.1149249982945076</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02863310683245687</v>
+        <v>0.02975539396099048</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>26</v>
+      </c>
+      <c r="J18" t="n">
+        <v>95</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>851129670.353456</v>
+        <v>1235303109.576487</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1222917323786439</v>
+        <v>0.1290358355343633</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02684913778848941</v>
+        <v>0.02163716205159774</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2239082109.468262</v>
+        <v>2755843356.634829</v>
       </c>
       <c r="F20" t="n">
-        <v>0.13434335516922</v>
+        <v>0.1427371068122784</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02604144689244252</v>
+        <v>0.02637535338279002</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2183354101.479855</v>
+        <v>1935931289.289044</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09568518248607656</v>
+        <v>0.07633430303491952</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0390317724020979</v>
+        <v>0.04073701594653916</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2649131595.22874</v>
+        <v>2533856053.608671</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09879078493950501</v>
+        <v>0.09582075679228649</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04325788435510252</v>
+        <v>0.05634171303061805</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>24</v>
+      </c>
+      <c r="J22" t="n">
+        <v>95</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1129836591.543867</v>
+        <v>1483289028.930999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1373319541550808</v>
+        <v>0.1840138956598664</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04887187577698458</v>
+        <v>0.04400832627887953</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2661372805.549691</v>
+        <v>3082346378.739773</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1296410566451383</v>
+        <v>0.1316388944511099</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02819835466018462</v>
+        <v>0.03085017883008294</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>28</v>
+      </c>
+      <c r="J24" t="n">
+        <v>90</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1426292542.41137</v>
+        <v>1084029383.636749</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1012803941571308</v>
+        <v>0.07447372131349887</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02699145689146279</v>
+        <v>0.02429857369434226</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1428486021.611469</v>
+        <v>1261494962.302807</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1148053559960718</v>
+        <v>0.1234226740277063</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02353245915649698</v>
+        <v>0.03893576153293862</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3014291510.518168</v>
+        <v>3999009330.840064</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1458040003780562</v>
+        <v>0.1529718584590564</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02524758282392485</v>
+        <v>0.02135873278913659</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>38</v>
+      </c>
+      <c r="J27" t="n">
+        <v>98</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3337035960.080849</v>
+        <v>3201982155.160648</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1036434396769707</v>
+        <v>0.1267773223852536</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04986685322103655</v>
+        <v>0.04077877931979542</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>95</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3712839004.173863</v>
+        <v>4279608489.181579</v>
       </c>
       <c r="F29" t="n">
-        <v>0.106590075282218</v>
+        <v>0.09185579621437277</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03581071545646271</v>
+        <v>0.03042898699980289</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>92</v>
+      </c>
+      <c r="J29" t="n">
+        <v>98</v>
+      </c>
+      <c r="K29" t="n">
+        <v>193.5019254485181</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2050970027.208811</v>
+        <v>2185982958.318855</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1168931313021034</v>
+        <v>0.08600791966852102</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02468182009553436</v>
+        <v>0.02485518842790254</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1281037542.950899</v>
+        <v>1487892462.021737</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1092641804062581</v>
+        <v>0.08430744304836617</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03450270487171617</v>
+        <v>0.03599866674380709</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1890059832.402843</v>
+        <v>1762042146.17205</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07325270068003235</v>
+        <v>0.1151704825346294</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03478406814034989</v>
+        <v>0.03617660358974896</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2344666692.019292</v>
+        <v>2584208036.652055</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1551376887107318</v>
+        <v>0.1827013129586617</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03868056409471476</v>
+        <v>0.04709402672009391</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1045045681.0047</v>
+        <v>1282449654.813895</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09610841611759111</v>
+        <v>0.1101962177796688</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02131986704496237</v>
+        <v>0.02438826810207075</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>864250486.2884109</v>
+        <v>1307124818.923173</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1041076826345051</v>
+        <v>0.09263951191385779</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03887167651120553</v>
+        <v>0.03236360685036595</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2634658521.0955</v>
+        <v>3106456929.817098</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1670840265160612</v>
+        <v>0.1488355894728943</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02205889104754026</v>
+        <v>0.02886282866179999</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2853244659.765047</v>
+        <v>2936396181.178172</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1079384186166998</v>
+        <v>0.08185592595101902</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03556906355557649</v>
+        <v>0.02871869648406882</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1750159866.651365</v>
+        <v>2176432256.861701</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0861360028935743</v>
+        <v>0.09594347240577882</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03627313186720279</v>
+        <v>0.03273373715365449</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1997002823.430669</v>
+        <v>1849701340.763492</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1758267861546679</v>
+        <v>0.1264906621992033</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02110522820342347</v>
+        <v>0.02008446002507721</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1380843796.722497</v>
+        <v>1246791282.556787</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1193625807774658</v>
+        <v>0.1255907617445303</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04474438962650117</v>
+        <v>0.03987549485090133</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2558243626.738781</v>
+        <v>1899644396.187927</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1288172946166458</v>
+        <v>0.1624561005286017</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0321034491916139</v>
+        <v>0.03540896692716763</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3630360274.296576</v>
+        <v>2921152909.196922</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1025088119048128</v>
+        <v>0.09088193335025899</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02883940727464273</v>
+        <v>0.03980074534684688</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>38</v>
+      </c>
+      <c r="J42" t="n">
+        <v>97</v>
+      </c>
+      <c r="K42" t="n">
+        <v>102.7389609683303</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2968012667.373811</v>
+        <v>2870423689.897316</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1580064331793463</v>
+        <v>0.146173957766504</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0162779612399574</v>
+        <v>0.0177805990344025</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2094815742.366829</v>
+        <v>1467549506.155714</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07882258441199587</v>
+        <v>0.07664203156831345</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03228225112537022</v>
+        <v>0.03220110242070268</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2403280084.797607</v>
+        <v>2060749788.926728</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1360894417790178</v>
+        <v>0.1521845756242348</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04334588503233829</v>
+        <v>0.05306442737900629</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2053,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5316736910.490487</v>
+        <v>4813520873.122236</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1375835639828813</v>
+        <v>0.1637284261822085</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04208245284883486</v>
+        <v>0.04929155465071819</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>56</v>
+      </c>
+      <c r="J46" t="n">
+        <v>98</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2088,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5028158734.654999</v>
+        <v>3312347744.760129</v>
       </c>
       <c r="F47" t="n">
-        <v>0.122529155791948</v>
+        <v>0.1997841992671721</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05757111057866315</v>
+        <v>0.05142115383719185</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>43</v>
+      </c>
+      <c r="J47" t="n">
+        <v>96</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4209253777.960452</v>
+        <v>4148000855.459581</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1033150413681527</v>
+        <v>0.0818319401246555</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03255136797637036</v>
+        <v>0.03051538572244858</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>36</v>
+      </c>
+      <c r="J48" t="n">
+        <v>98</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1851800536.822369</v>
+        <v>1354009397.398788</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1942130015558349</v>
+        <v>0.1712473346590012</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04480136526071918</v>
+        <v>0.0350980617611654</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2193,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3697453600.905665</v>
+        <v>2779927143.701455</v>
       </c>
       <c r="F50" t="n">
-        <v>0.109900196783629</v>
+        <v>0.1414759606019655</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04455951121086375</v>
+        <v>0.04107720123330416</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>34</v>
+      </c>
+      <c r="J50" t="n">
+        <v>96</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1461721151.416529</v>
+        <v>1130417775.232553</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1613344094391883</v>
+        <v>0.1199291572398957</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05276014536471722</v>
+        <v>0.0403001806815462</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2257,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4013310317.665793</v>
+        <v>4528709268.851272</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1212206977271715</v>
+        <v>0.1376609258501487</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05570453946075351</v>
+        <v>0.05783496869640767</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>75</v>
+      </c>
+      <c r="J52" t="n">
+        <v>98</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2292,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2860694257.508053</v>
+        <v>2950891299.649599</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1536948464271049</v>
+        <v>0.1826882282580063</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02316978426161075</v>
+        <v>0.03371776402175689</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2327,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4774904308.136104</v>
+        <v>3502115599.1955</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1371303227554923</v>
+        <v>0.1023325865796335</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03550415604169031</v>
+        <v>0.05266062447636565</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>44</v>
+      </c>
+      <c r="J54" t="n">
+        <v>96</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2362,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4233978729.332398</v>
+        <v>4101211994.995504</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1504013596435483</v>
+        <v>0.172715616208788</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01984609536427494</v>
+        <v>0.02226694072367195</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>44</v>
+      </c>
+      <c r="J55" t="n">
+        <v>98</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2403,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1714428213.028728</v>
+        <v>1618716778.29129</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1570333485961627</v>
+        <v>0.1543984225899113</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04462519518894821</v>
+        <v>0.04861968243247081</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2438,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4584484226.554041</v>
+        <v>3496103555.80297</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1486699073328764</v>
+        <v>0.1649164731742666</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0221611736354838</v>
+        <v>0.02312278451525544</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>37</v>
+      </c>
+      <c r="J57" t="n">
+        <v>96</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2467,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1260992050.991128</v>
+        <v>1291174717.064212</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1538857373400306</v>
+        <v>0.1507955806607046</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03520364917764338</v>
+        <v>0.03101319139481444</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2508,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4216337038.888736</v>
+        <v>3284834474.795161</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09079851402508381</v>
+        <v>0.09676010293922054</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0326856407834494</v>
+        <v>0.03187447751999921</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>48</v>
+      </c>
+      <c r="J59" t="n">
+        <v>97</v>
+      </c>
+      <c r="K59" t="n">
+        <v>117.8935382215493</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2539,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3766731748.148979</v>
+        <v>3240258657.76998</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1946646085349107</v>
+        <v>0.1536044833161167</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02492252827774751</v>
+        <v>0.03334866217289342</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>14</v>
+      </c>
+      <c r="J60" t="n">
+        <v>97</v>
+      </c>
+      <c r="K60" t="n">
+        <v>121.7808364264516</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2576,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2914572282.410936</v>
+        <v>3062300445.965218</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1712107069500619</v>
+        <v>0.1107609721425296</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02310994994983604</v>
+        <v>0.02647111565648345</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2611,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1322259351.227475</v>
+        <v>1430278374.339286</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1345600628532449</v>
+        <v>0.1507571017084292</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04739715997965358</v>
+        <v>0.04385008987036778</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2646,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4002785502.339378</v>
+        <v>5417871850.917137</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1043254397137283</v>
+        <v>0.08680514572001249</v>
       </c>
       <c r="G63" t="n">
-        <v>0.042852943502087</v>
+        <v>0.04031451284593862</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>48</v>
+      </c>
+      <c r="J63" t="n">
+        <v>98</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2687,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3843771013.481205</v>
+        <v>4339004160.896507</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1577090373136291</v>
+        <v>0.1774183986177443</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0262327177595281</v>
+        <v>0.02185138915851337</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>48</v>
+      </c>
+      <c r="J64" t="n">
+        <v>98</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2716,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3847776982.622103</v>
+        <v>4238043351.299898</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1590740118946511</v>
+        <v>0.1267190907236176</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03155902731209631</v>
+        <v>0.03179906378399474</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>79</v>
+      </c>
+      <c r="J65" t="n">
+        <v>98</v>
+      </c>
+      <c r="K65" t="n">
+        <v>170.6353213096305</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2753,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5653604488.960601</v>
+        <v>3762782149.370628</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1561642738993395</v>
+        <v>0.1508442571362777</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04050803543556079</v>
+        <v>0.04204337400157537</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>48</v>
+      </c>
+      <c r="J66" t="n">
+        <v>97</v>
+      </c>
+      <c r="K66" t="n">
+        <v>155.542132609015</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2790,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3025933075.660347</v>
+        <v>3411378542.133553</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1035161678941037</v>
+        <v>0.07538458044708848</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04586928505513986</v>
+        <v>0.03541470768517112</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2825,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5869112022.083358</v>
+        <v>5865005137.456256</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1360184181433417</v>
+        <v>0.1349862321606743</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04243147985750512</v>
+        <v>0.04334624655025702</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>49</v>
+      </c>
+      <c r="J68" t="n">
+        <v>97</v>
+      </c>
+      <c r="K68" t="n">
+        <v>155.4821369622518</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2348739904.058904</v>
+        <v>2027011910.052248</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1488155598143501</v>
+        <v>0.1322904535791162</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05327563118176125</v>
+        <v>0.04347783073317714</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2903,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3730878266.980705</v>
+        <v>2734779844.622039</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07597460316149669</v>
+        <v>0.07099455209706736</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0299905270489137</v>
+        <v>0.03913307591294453</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>12</v>
+      </c>
+      <c r="J70" t="n">
+        <v>95</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2938,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5011876458.519723</v>
+        <v>3534185808.162275</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1595401137791747</v>
+        <v>0.1752049213699489</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03177212672893444</v>
+        <v>0.03221948422819769</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>79</v>
+      </c>
+      <c r="J71" t="n">
+        <v>98</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2967,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1845573982.998022</v>
+        <v>1716453400.929818</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1076974037186332</v>
+        <v>0.07546572446646083</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05168455708850087</v>
+        <v>0.04740793492458719</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3002,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3278743572.732711</v>
+        <v>3526070337.11025</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09617592963458348</v>
+        <v>0.0854099241286423</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03430134766243694</v>
+        <v>0.03965112915129673</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>98</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3043,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2775849943.834019</v>
+        <v>3465006038.327453</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1701731670778636</v>
+        <v>0.1387395065692676</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03398255137362555</v>
+        <v>0.02163367388619802</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>32</v>
+      </c>
+      <c r="J74" t="n">
+        <v>97</v>
+      </c>
+      <c r="K74" t="n">
+        <v>142.0860930072354</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3080,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2333783152.080105</v>
+        <v>1685577138.67532</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1419830380869247</v>
+        <v>0.1550599671831332</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02288271380730299</v>
+        <v>0.02439843508619518</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3109,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3238235370.577412</v>
+        <v>3477076908.592837</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1161632526325867</v>
+        <v>0.09247989651028891</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02718824778671765</v>
+        <v>0.02577855560724003</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>45</v>
+      </c>
+      <c r="J76" t="n">
+        <v>97</v>
+      </c>
+      <c r="K76" t="n">
+        <v>118.1001966244441</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2138940703.718621</v>
+        <v>2066070123.788345</v>
       </c>
       <c r="F77" t="n">
-        <v>0.113725062062607</v>
+        <v>0.1464674226853282</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0195564481577883</v>
+        <v>0.01912857798216095</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3181,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4698261159.390156</v>
+        <v>3292178557.389256</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1240456809831147</v>
+        <v>0.1232901622145667</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05253427943648355</v>
+        <v>0.03517987272027401</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>50</v>
+      </c>
+      <c r="J78" t="n">
+        <v>97</v>
+      </c>
+      <c r="K78" t="n">
+        <v>134.725651234768</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1541338981.287552</v>
+        <v>1266118980.058294</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1305681792082388</v>
+        <v>0.1153025218632592</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02897082600475125</v>
+        <v>0.03545784503628253</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3489242434.847663</v>
+        <v>4809758427.638473</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0808849099611665</v>
+        <v>0.1010490639993966</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02838456118390205</v>
+        <v>0.03700308545199096</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>47</v>
+      </c>
+      <c r="J80" t="n">
+        <v>97</v>
+      </c>
+      <c r="K80" t="n">
+        <v>124.7835548044706</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3296,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4162871288.300794</v>
+        <v>3865477711.84783</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1137934594843387</v>
+        <v>0.1225837193961293</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02650938852514704</v>
+        <v>0.023709416177701</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>44</v>
+      </c>
+      <c r="J81" t="n">
+        <v>98</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4976070518.469097</v>
+        <v>3963713396.865475</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1930210339642685</v>
+        <v>0.1685267106608646</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02202281331752006</v>
+        <v>0.02035679382206208</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>63</v>
+      </c>
+      <c r="J82" t="n">
+        <v>98</v>
+      </c>
+      <c r="K82" t="n">
+        <v>173.5194937058487</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2462220204.321604</v>
+        <v>2423400876.546546</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1122143673883111</v>
+        <v>0.1105038492000571</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04450204220765124</v>
+        <v>0.03548392638746335</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1774286130.964527</v>
+        <v>1903925167.10541</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09707040351242405</v>
+        <v>0.08224737945898701</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04264130116537095</v>
+        <v>0.05204267984749752</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2840638658.511836</v>
+        <v>3516984536.829814</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1338861434563713</v>
+        <v>0.1399429874859073</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03781320101188521</v>
+        <v>0.04662595777109715</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>16</v>
+      </c>
+      <c r="J85" t="n">
+        <v>98</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2642713518.226808</v>
+        <v>2687110784.733234</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1336161198262136</v>
+        <v>0.1549768880494086</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02598108825371383</v>
+        <v>0.02523863158942327</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1385689385.527503</v>
+        <v>1071217718.566455</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1525300516426414</v>
+        <v>0.1661119104301179</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03601337495888574</v>
+        <v>0.03883818279174265</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3271197946.593432</v>
+        <v>3671485165.611316</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1111039180557456</v>
+        <v>0.1603050039291999</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03788975383271367</v>
+        <v>0.03906454132987104</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>15</v>
+      </c>
+      <c r="J88" t="n">
+        <v>98</v>
+      </c>
+      <c r="K88" t="n">
+        <v>170.4407280406147</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3574,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2823730337.480519</v>
+        <v>2279098867.33006</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1405098239122475</v>
+        <v>0.1352578710457253</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03010643742264058</v>
+        <v>0.02760860854340948</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="n">
+        <v>62.77331297444498</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1716965261.368194</v>
+        <v>1354935938.912833</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1356627199027712</v>
+        <v>0.1146228878445686</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04124188056295451</v>
+        <v>0.04338961316914396</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2031409028.316918</v>
+        <v>1945022951.991951</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1488509926307927</v>
+        <v>0.1276091739707426</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05380193026733078</v>
+        <v>0.0447773292335253</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2515722334.898777</v>
+        <v>1941969579.1957</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07655910839719313</v>
+        <v>0.09513739160532969</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04734963409382666</v>
+        <v>0.03309988648836769</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3329848134.451281</v>
+        <v>4159469482.535719</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1158840671894288</v>
+        <v>0.1032887365438433</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0455754508407649</v>
+        <v>0.03806463839775829</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>44</v>
+      </c>
+      <c r="J93" t="n">
+        <v>98</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1587282140.965808</v>
+        <v>1853046996.847552</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1600426235880754</v>
+        <v>0.16610140504584</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03264515481168541</v>
+        <v>0.03727007736676764</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2171800291.648367</v>
+        <v>2476026485.351648</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08999474950205269</v>
+        <v>0.09623937236595634</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04307473443340686</v>
+        <v>0.04593533126128709</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1490523917.001554</v>
+        <v>2016175135.813087</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1059393138201255</v>
+        <v>0.1213602012240623</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04441477207164825</v>
+        <v>0.03691962183822826</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4098707841.168479</v>
+        <v>4266122741.28407</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1108775721764696</v>
+        <v>0.1421305592693001</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01882598062988958</v>
+        <v>0.02845801418859841</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>47</v>
+      </c>
+      <c r="J97" t="n">
+        <v>97</v>
+      </c>
+      <c r="K97" t="n">
+        <v>162.550987505124</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2672707726.306002</v>
+        <v>2726188028.993034</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1060449449682785</v>
+        <v>0.09278754862463008</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02992879598712645</v>
+        <v>0.02243443878458474</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>21</v>
+      </c>
+      <c r="J98" t="n">
+        <v>93</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3106072370.74568</v>
+        <v>2339450903.155764</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1159374495245068</v>
+        <v>0.1383750853825655</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03075294840019642</v>
+        <v>0.03280686227316145</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3458790038.045329</v>
+        <v>3718592809.600946</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1374979880904188</v>
+        <v>0.1215213259574678</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02338040363619568</v>
+        <v>0.0224529105680965</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>40</v>
+      </c>
+      <c r="J100" t="n">
+        <v>97</v>
+      </c>
+      <c r="K100" t="n">
+        <v>151.8035768127686</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3387713483.950228</v>
+        <v>2364100963.426189</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2055959946150976</v>
+        <v>0.1998261146994419</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04869854759492278</v>
+        <v>0.03975305750978193</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>90</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
